--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8570.65</v>
+        <v>9005.42</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8570.65</v>
+        <v>9005.42</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8570.65</v>
+        <v>9005.42</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,15 +439,23 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>9005.42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8994.370000000001</v>
       </c>
     </row>
     <row r="3">
@@ -459,15 +467,21 @@
       <c r="B3" t="n">
         <v>9005.42</v>
       </c>
+      <c r="C3" t="n">
+        <v>8994.370000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>9005.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8994.370000000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8994.370000000001</v>
+        <v>9046.08</v>
       </c>
       <c r="C2" t="n">
-        <v>9003.809999999999</v>
+        <v>8952.440000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>8680.07</v>
+        <v>8148.75</v>
       </c>
       <c r="E2" t="n">
-        <v>8961.809999999999</v>
+        <v>8341.27</v>
       </c>
       <c r="F2" t="n">
-        <v>8644.379999999999</v>
+        <v>8568.43</v>
       </c>
       <c r="G2" t="n">
-        <v>8301.25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8331.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8279.459999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9260.17</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9309.139999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8314.629999999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9046.08</v>
+        <v>8666.690000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8994.370000000001</v>
+        <v>9046.08</v>
       </c>
       <c r="C3" t="n">
-        <v>9003.809999999999</v>
+        <v>8952.440000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>8680.07</v>
+        <v>8148.75</v>
       </c>
       <c r="E3" t="n">
-        <v>8961.809999999999</v>
+        <v>8341.27</v>
       </c>
       <c r="F3" t="n">
-        <v>8644.379999999999</v>
+        <v>8568.43</v>
       </c>
       <c r="G3" t="n">
-        <v>8301.25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8331.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8279.459999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9260.17</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9309.139999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8314.629999999999</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9046.08</v>
+        <v>8666.690000000001</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8994.370000000001</v>
+        <v>9046.08</v>
       </c>
       <c r="C4" t="n">
-        <v>9003.809999999999</v>
+        <v>8952.440000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>8680.07</v>
+        <v>8148.75</v>
       </c>
       <c r="E4" t="n">
-        <v>8961.809999999999</v>
+        <v>8341.27</v>
       </c>
       <c r="F4" t="n">
-        <v>8644.379999999999</v>
+        <v>8568.43</v>
       </c>
       <c r="G4" t="n">
-        <v>8301.25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8331.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8279.459999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9260.17</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9309.139999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8314.629999999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9046.08</v>
+        <v>8666.690000000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>8994.370000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9003.809999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8680.07</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8961.809999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8644.379999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8301.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8331.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8279.459999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9260.17</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9309.139999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8314.629999999999</v>
+      </c>
+      <c r="M2" t="n">
         <v>9046.08</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8952.440000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8148.75</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8341.27</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8568.43</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8666.690000000001</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>8994.370000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9003.809999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8680.07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8961.809999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8644.379999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8301.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8331.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8279.459999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9260.17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9309.139999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8314.629999999999</v>
+      </c>
+      <c r="M3" t="n">
         <v>9046.08</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8952.440000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8148.75</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8341.27</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8568.43</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8666.690000000001</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8994.370000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9003.809999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8680.07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8961.809999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8644.379999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8301.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8331.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8279.459999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9260.17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9309.139999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8314.629999999999</v>
+      </c>
+      <c r="M4" t="n">
         <v>9046.08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8952.440000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8148.75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8341.27</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8568.43</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8666.690000000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8994.370000000001</v>
+        <v>9046.08</v>
       </c>
       <c r="C2" t="n">
-        <v>9003.809999999999</v>
+        <v>8952.440000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>8680.07</v>
+        <v>8148.75</v>
       </c>
       <c r="E2" t="n">
-        <v>8961.809999999999</v>
+        <v>8341.27</v>
       </c>
       <c r="F2" t="n">
-        <v>8644.379999999999</v>
+        <v>8568.43</v>
       </c>
       <c r="G2" t="n">
-        <v>8301.25</v>
+        <v>8666.690000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>8331.4</v>
+        <v>8723.809999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>8279.459999999999</v>
+        <v>9304.469999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>9260.17</v>
+        <v>8679.16</v>
       </c>
       <c r="K2" t="n">
-        <v>9309.139999999999</v>
+        <v>8549.66</v>
       </c>
       <c r="L2" t="n">
-        <v>8314.629999999999</v>
+        <v>8405.52</v>
       </c>
       <c r="M2" t="n">
-        <v>9046.08</v>
+        <v>8227.24</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9396.66</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8198.91</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9002.99</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8926.91</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8079.09</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7997.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>8058.42</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8884.440000000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9360.610000000001</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8055.46</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8386.25</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9658.540000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9286.950000000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9582.83</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8994.370000000001</v>
+        <v>9046.08</v>
       </c>
       <c r="C3" t="n">
-        <v>9003.809999999999</v>
+        <v>8952.440000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>8680.07</v>
+        <v>8148.75</v>
       </c>
       <c r="E3" t="n">
-        <v>8961.809999999999</v>
+        <v>8341.27</v>
       </c>
       <c r="F3" t="n">
-        <v>8644.379999999999</v>
+        <v>8568.43</v>
       </c>
       <c r="G3" t="n">
-        <v>8301.25</v>
+        <v>8666.690000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>8331.4</v>
+        <v>8723.809999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>8279.459999999999</v>
+        <v>9304.469999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9260.17</v>
+        <v>8679.16</v>
       </c>
       <c r="K3" t="n">
-        <v>9309.139999999999</v>
+        <v>8549.66</v>
       </c>
       <c r="L3" t="n">
-        <v>8314.629999999999</v>
+        <v>8405.52</v>
       </c>
       <c r="M3" t="n">
-        <v>9046.08</v>
+        <v>8227.24</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9396.66</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8198.91</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9002.99</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8926.91</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8079.09</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7997.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8058.42</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8884.440000000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9360.610000000001</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8055.46</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8386.25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9658.540000000001</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9286.950000000001</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9582.83</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8994.370000000001</v>
+        <v>9046.08</v>
       </c>
       <c r="C4" t="n">
-        <v>9003.809999999999</v>
+        <v>8952.440000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>8680.07</v>
+        <v>8148.75</v>
       </c>
       <c r="E4" t="n">
-        <v>8961.809999999999</v>
+        <v>8341.27</v>
       </c>
       <c r="F4" t="n">
-        <v>8644.379999999999</v>
+        <v>8568.43</v>
       </c>
       <c r="G4" t="n">
-        <v>8301.25</v>
+        <v>8666.690000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>8331.4</v>
+        <v>8723.809999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>8279.459999999999</v>
+        <v>9304.469999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>9260.17</v>
+        <v>8679.16</v>
       </c>
       <c r="K4" t="n">
-        <v>9309.139999999999</v>
+        <v>8549.66</v>
       </c>
       <c r="L4" t="n">
-        <v>8314.629999999999</v>
+        <v>8405.52</v>
       </c>
       <c r="M4" t="n">
-        <v>9046.08</v>
+        <v>8227.24</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9396.66</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8198.91</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9002.99</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8926.91</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8079.09</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7997.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8058.42</v>
+      </c>
+      <c r="U4" t="n">
+        <v>8884.440000000001</v>
+      </c>
+      <c r="V4" t="n">
+        <v>9360.610000000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8055.46</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8386.25</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9658.540000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9286.950000000001</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>9582.83</v>
       </c>
     </row>
   </sheetData>
